--- a/data/trans_orig/P6903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF79954-BB23-41E5-BBA9-1E6411FC6454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E35FCD9-B429-4B65-9834-0D21FC370501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAEED26F-C29C-47F7-A1D3-7EFC6BA252EB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5C381A3-286B-4E3E-9CA7-8BC76AA35BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="430">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,18%</t>
+    <t>38,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>27,39%</t>
+    <t>30,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>92,1%</t>
   </si>
   <si>
-    <t>68,82%</t>
+    <t>61,49%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>94,36%</t>
   </si>
   <si>
-    <t>72,61%</t>
+    <t>69,95%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -125,55 +125,55 @@
     <t>30,72%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -182,55 +182,55 @@
     <t>33,11%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -239,199 +239,199 @@
     <t>25,32%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>58,24%</t>
@@ -443,10 +443,10 @@
     <t>74,52%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>27,21%</t>
@@ -455,892 +455,880 @@
     <t>16,1%</t>
   </si>
   <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10439F1-A0D8-435D-AE06-F0841336CA28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3E90B-AFB8-4AA2-95C8-60FD4D08BDC2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2654,10 +2642,10 @@
         <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2666,13 +2654,13 @@
         <v>67753</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -2681,13 +2669,13 @@
         <v>216970</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2690,13 @@
         <v>323088</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -2717,13 +2705,13 @@
         <v>152368</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>460</v>
@@ -2732,13 +2720,13 @@
         <v>475457</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B015B7A-FADF-4042-A292-C41221B602E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461409F4-F6D9-40C1-859A-FD452A4CC6E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2832,7 +2820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2939,13 +2927,13 @@
         <v>4444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2954,13 +2942,13 @@
         <v>3071</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2969,13 +2957,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2978,7 @@
         <v>17693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>129</v>
@@ -3792,7 +3780,7 @@
         <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>387234</v>
+        <v>387233</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>223</v>
@@ -3843,7 +3831,7 @@
         <v>508</v>
       </c>
       <c r="N21" s="7">
-        <v>538982</v>
+        <v>538981</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3857,7 +3845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D25C20D-276B-4B87-8511-4F47684C82B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4962A23B-1309-42C1-8345-C03AA26161BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,7 +4181,7 @@
         <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4196,13 @@
         <v>29372</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4223,13 +4211,13 @@
         <v>13801</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4238,13 +4226,13 @@
         <v>43174</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4300,13 @@
         <v>32690</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4327,13 +4315,13 @@
         <v>25051</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4342,13 +4330,13 @@
         <v>57740</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4351,13 @@
         <v>64294</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4378,13 +4366,13 @@
         <v>30501</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -4393,13 +4381,13 @@
         <v>94795</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4455,13 @@
         <v>45169</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4482,13 +4470,13 @@
         <v>29745</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4497,13 +4485,13 @@
         <v>74914</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4506,13 @@
         <v>64766</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4533,13 +4521,13 @@
         <v>35002</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -4548,13 +4536,13 @@
         <v>99768</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4610,13 @@
         <v>38912</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4637,13 +4625,13 @@
         <v>24098</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4652,13 +4640,13 @@
         <v>63010</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4661,13 @@
         <v>49498</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4688,13 +4676,13 @@
         <v>41985</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4703,13 +4691,13 @@
         <v>91483</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4765,13 @@
         <v>135950</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4792,13 +4780,13 @@
         <v>89846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -4807,13 +4795,13 @@
         <v>225796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4816,13 @@
         <v>214051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -4843,13 +4831,13 @@
         <v>126452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -4858,13 +4846,13 @@
         <v>340503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,7 +4908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255E4A39-009B-4913-AB84-6FD755E05062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F9FC9-510F-4767-83BF-85220DE69291}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4958,7 +4946,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5065,13 +5053,13 @@
         <v>1471</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5080,13 +5068,13 @@
         <v>3698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5095,13 +5083,13 @@
         <v>5169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +5104,10 @@
         <v>12742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5131,13 +5119,13 @@
         <v>7593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5146,13 +5134,13 @@
         <v>20334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5208,13 @@
         <v>21690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5235,13 +5223,13 @@
         <v>20033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5250,13 +5238,13 @@
         <v>41722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5259,13 @@
         <v>38622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5286,13 +5274,13 @@
         <v>27961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5301,13 +5289,13 @@
         <v>66584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5363,13 @@
         <v>43753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5390,13 +5378,13 @@
         <v>45396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5405,13 +5393,13 @@
         <v>89150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5414,13 @@
         <v>71560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5441,13 +5429,13 @@
         <v>63836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5456,13 +5444,13 @@
         <v>135395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5518,13 @@
         <v>23270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -5545,13 +5533,13 @@
         <v>29905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5560,13 +5548,13 @@
         <v>53175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5569,13 @@
         <v>33835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5596,13 +5584,13 @@
         <v>49873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -5611,13 +5599,13 @@
         <v>83709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5673,13 @@
         <v>33179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5700,13 +5688,13 @@
         <v>54755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5715,13 +5703,13 @@
         <v>87934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5724,13 @@
         <v>70071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5751,13 +5739,13 @@
         <v>57432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5766,13 +5754,13 @@
         <v>127503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5828,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -5855,13 +5843,13 @@
         <v>153787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -5870,13 +5858,13 @@
         <v>277150</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5879,13 @@
         <v>226830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>276</v>
@@ -5906,13 +5894,13 @@
         <v>206695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -5921,13 +5909,13 @@
         <v>433525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,7 +5971,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E35FCD9-B429-4B65-9834-0D21FC370501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6CD1F7-F7F9-4B88-A4B4-22F5C507D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5C381A3-286B-4E3E-9CA7-8BC76AA35BF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5317233-427B-432E-96CE-EC61EF816F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,51%</t>
+    <t>32,42%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>30,05%</t>
+    <t>26,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>92,1%</t>
   </si>
   <si>
-    <t>61,49%</t>
+    <t>67,58%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,178 +116,178 @@
     <t>94,36%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>34,64%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>65,36%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>77,11%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,859 +296,853 @@
     <t>38,02%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>32,65%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
   </si>
   <si>
     <t>67,35%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>36,04%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
   </si>
   <si>
     <t>58,44%</t>
@@ -1740,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B3E90B-AFB8-4AA2-95C8-60FD4D08BDC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D80D06-3C2B-43DD-9549-DBC9F973E7C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2642,10 +2636,10 @@
         <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -2654,13 +2648,13 @@
         <v>67753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -2669,13 +2663,13 @@
         <v>216970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2684,13 @@
         <v>323088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -2705,13 +2699,13 @@
         <v>152368</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>460</v>
@@ -2720,13 +2714,13 @@
         <v>475457</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2776,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461409F4-F6D9-40C1-859A-FD452A4CC6E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F8D79-DBBB-48EC-B43D-983CF797C53D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2820,7 +2814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2927,13 +2921,13 @@
         <v>4444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2942,13 +2936,13 @@
         <v>3071</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2957,13 +2951,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2972,13 @@
         <v>17693</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2993,10 +2987,10 @@
         <v>4283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3008,13 +3002,13 @@
         <v>21976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3076,13 @@
         <v>14532</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3097,13 +3091,13 @@
         <v>9940</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3112,13 +3106,13 @@
         <v>24472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3127,13 @@
         <v>38869</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3148,13 +3142,13 @@
         <v>17960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3163,13 +3157,13 @@
         <v>56829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3231,13 @@
         <v>21063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3252,13 +3246,13 @@
         <v>22254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3267,13 +3261,13 @@
         <v>43317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3282,13 @@
         <v>70743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -3303,13 +3297,13 @@
         <v>40095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -3318,13 +3312,13 @@
         <v>110838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3386,13 @@
         <v>22299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3407,13 +3401,13 @@
         <v>15094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3422,13 +3416,13 @@
         <v>37393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3437,13 @@
         <v>57258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -3458,13 +3452,13 @@
         <v>37885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -3473,13 +3467,13 @@
         <v>95143</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3541,13 @@
         <v>14936</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3562,13 +3556,13 @@
         <v>24113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3577,13 +3571,13 @@
         <v>39050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3592,13 @@
         <v>62466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3613,13 +3607,13 @@
         <v>39983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3628,10 +3622,10 @@
         <v>102449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>207</v>
@@ -3702,13 +3696,13 @@
         <v>77275</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -3717,13 +3711,13 @@
         <v>74473</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -3732,13 +3726,13 @@
         <v>151748</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3747,13 @@
         <v>247028</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -3768,13 +3762,13 @@
         <v>140205</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
@@ -3783,13 +3777,13 @@
         <v>387233</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,7 +3839,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4962A23B-1309-42C1-8345-C03AA26161BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEAB02B-86AE-4A02-BB1C-073C39EC2641}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,13 +3984,13 @@
         <v>1928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4005,13 +3999,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4020,13 +4014,13 @@
         <v>2896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +4035,10 @@
         <v>6121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4056,10 +4050,10 @@
         <v>5162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4071,13 +4065,13 @@
         <v>11283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4139,13 @@
         <v>17252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4160,13 +4154,13 @@
         <v>9984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4175,13 +4169,13 @@
         <v>27235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4190,13 @@
         <v>29372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4211,13 +4205,13 @@
         <v>13801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4226,13 +4220,13 @@
         <v>43174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4294,13 @@
         <v>32690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4315,13 +4309,13 @@
         <v>25051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4330,13 +4324,13 @@
         <v>57740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4345,13 @@
         <v>64294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4366,13 +4360,13 @@
         <v>30501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -4381,13 +4375,13 @@
         <v>94795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4449,13 @@
         <v>45169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4470,13 +4464,13 @@
         <v>29745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4485,13 +4479,13 @@
         <v>74914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4500,13 @@
         <v>64766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4521,13 +4515,13 @@
         <v>35002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -4536,13 +4530,13 @@
         <v>99768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4604,13 @@
         <v>38912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4625,13 +4619,13 @@
         <v>24098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4640,13 +4634,13 @@
         <v>63010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4655,13 @@
         <v>49498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4676,13 +4670,13 @@
         <v>41985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4691,13 +4685,13 @@
         <v>91483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4759,13 @@
         <v>135950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4780,13 +4774,13 @@
         <v>89846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -4795,13 +4789,13 @@
         <v>225796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4810,13 @@
         <v>214051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -4831,13 +4825,13 @@
         <v>126452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -4846,13 +4840,13 @@
         <v>340503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4929,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F9FC9-510F-4767-83BF-85220DE69291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235C7E6-385F-4B20-B7D1-135036AA3CCE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4946,7 +4940,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5053,13 +5047,13 @@
         <v>1471</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5068,13 +5062,13 @@
         <v>3698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5083,13 +5077,13 @@
         <v>5169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,10 +5098,10 @@
         <v>12742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5119,13 +5113,13 @@
         <v>7593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5134,13 +5128,13 @@
         <v>20334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5202,13 @@
         <v>21690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5223,13 +5217,13 @@
         <v>20033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5238,13 +5232,13 @@
         <v>41722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5253,13 @@
         <v>38622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5274,13 +5268,13 @@
         <v>27961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5289,13 +5283,13 @@
         <v>66584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5357,13 @@
         <v>43753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5378,13 +5372,13 @@
         <v>45396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5393,13 +5387,13 @@
         <v>89150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5408,13 @@
         <v>71560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5429,13 +5423,13 @@
         <v>63836</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5444,13 +5438,13 @@
         <v>135395</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5512,13 @@
         <v>23270</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -5533,13 +5527,13 @@
         <v>29905</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5548,13 +5542,13 @@
         <v>53175</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5563,13 @@
         <v>33835</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5584,13 +5578,13 @@
         <v>49873</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -5599,13 +5593,13 @@
         <v>83709</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5667,13 @@
         <v>33179</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5688,13 +5682,13 @@
         <v>54755</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5703,13 +5697,13 @@
         <v>87934</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5718,13 @@
         <v>70071</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5739,13 +5733,13 @@
         <v>57432</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5754,13 +5748,13 @@
         <v>127503</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5822,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -5843,13 +5837,13 @@
         <v>153787</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -5858,13 +5852,13 @@
         <v>277150</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5873,13 @@
         <v>226830</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>276</v>
@@ -5894,13 +5888,13 @@
         <v>206695</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -5909,13 +5903,13 @@
         <v>433525</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,7 +5965,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6CD1F7-F7F9-4B88-A4B4-22F5C507D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D995CD0-24D4-454C-8516-FCBBEA526AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5317233-427B-432E-96CE-EC61EF816F2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6D05C8D-A965-4941-8967-64E117A69CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,9%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,42%</t>
+    <t>31,18%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>5,64%</t>
   </si>
   <si>
-    <t>26,77%</t>
+    <t>27,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>92,1%</t>
   </si>
   <si>
-    <t>67,58%</t>
+    <t>68,82%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>94,36%</t>
   </si>
   <si>
-    <t>73,23%</t>
+    <t>72,61%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,1204 +125,1222 @@
     <t>30,72%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>23,83%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
   </si>
   <si>
     <t>67,59%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>66,97%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
     <t>60,3%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D80D06-3C2B-43DD-9549-DBC9F973E7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CC4969-A687-4BD1-8EEF-C2720FDB4E99}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F8D79-DBBB-48EC-B43D-983CF797C53D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627FAA50-EBED-4D6E-9A71-9F91D9F4EDDB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2921,13 +2939,13 @@
         <v>4444</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2936,13 +2954,13 @@
         <v>3071</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2951,13 +2969,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2990,13 @@
         <v>17693</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2987,10 +3005,10 @@
         <v>4283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3002,13 +3020,13 @@
         <v>21976</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3094,13 @@
         <v>14532</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3091,13 +3109,13 @@
         <v>9940</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3106,13 +3124,13 @@
         <v>24472</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3145,13 @@
         <v>38869</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3142,13 +3160,13 @@
         <v>17960</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3157,13 +3175,13 @@
         <v>56829</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3249,13 @@
         <v>21063</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3246,13 +3264,13 @@
         <v>22254</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3261,13 +3279,13 @@
         <v>43317</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3300,13 @@
         <v>70743</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -3297,13 +3315,13 @@
         <v>40095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -3312,13 +3330,13 @@
         <v>110838</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3404,13 @@
         <v>22299</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3401,13 +3419,13 @@
         <v>15094</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3416,13 +3434,13 @@
         <v>37393</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3455,13 @@
         <v>57258</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -3452,13 +3470,13 @@
         <v>37885</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -3467,13 +3485,13 @@
         <v>95143</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3559,13 @@
         <v>14936</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3556,13 +3574,13 @@
         <v>24113</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3571,13 +3589,13 @@
         <v>39050</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3610,13 @@
         <v>62466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3607,13 +3625,13 @@
         <v>39983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3622,10 +3640,10 @@
         <v>102449</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>207</v>
@@ -3696,13 +3714,13 @@
         <v>77275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -3711,13 +3729,13 @@
         <v>74473</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>142</v>
@@ -3726,13 +3744,13 @@
         <v>151748</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3765,13 @@
         <v>247028</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -3762,28 +3780,28 @@
         <v>140205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>387233</v>
+        <v>387234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3843,7 @@
         <v>508</v>
       </c>
       <c r="N21" s="7">
-        <v>538981</v>
+        <v>538982</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3860,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEAB02B-86AE-4A02-BB1C-073C39EC2641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FF5336-A731-44A8-84AF-5F76B518BCB6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,13 +4002,13 @@
         <v>1928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3999,13 +4017,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4014,13 +4032,13 @@
         <v>2896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +4053,10 @@
         <v>6121</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4050,10 +4068,10 @@
         <v>5162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4065,13 +4083,13 @@
         <v>11283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4157,13 @@
         <v>17252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4154,13 +4172,13 @@
         <v>9984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4169,13 +4187,13 @@
         <v>27235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4208,13 @@
         <v>29372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -4205,13 +4223,13 @@
         <v>13801</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4220,13 +4238,13 @@
         <v>43174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4312,13 @@
         <v>32690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4309,13 +4327,13 @@
         <v>25051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -4324,13 +4342,13 @@
         <v>57740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4363,13 @@
         <v>64294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4360,13 +4378,13 @@
         <v>30501</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -4375,13 +4393,13 @@
         <v>94795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4467,13 @@
         <v>45169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4464,13 +4482,13 @@
         <v>29745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4479,13 +4497,13 @@
         <v>74914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4518,13 @@
         <v>64766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4515,13 +4533,13 @@
         <v>35002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -4530,13 +4548,13 @@
         <v>99768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4622,13 @@
         <v>38912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4619,13 +4637,13 @@
         <v>24098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4634,13 +4652,13 @@
         <v>63010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4673,13 @@
         <v>49498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4670,13 +4688,13 @@
         <v>41985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -4685,13 +4703,13 @@
         <v>91483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4777,13 @@
         <v>135950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>86</v>
@@ -4774,13 +4792,13 @@
         <v>89846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -4789,13 +4807,13 @@
         <v>225796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4828,13 @@
         <v>214051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
@@ -4825,13 +4843,13 @@
         <v>126452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>320</v>
@@ -4840,13 +4858,13 @@
         <v>340503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235C7E6-385F-4B20-B7D1-135036AA3CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246992B-0472-442C-98EE-D4323ED176DD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4940,7 +4958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5047,13 +5065,13 @@
         <v>1471</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5062,13 +5080,13 @@
         <v>3698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5077,13 +5095,13 @@
         <v>5169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +5116,10 @@
         <v>12742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5113,13 +5131,13 @@
         <v>7593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5128,13 +5146,13 @@
         <v>20334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5220,13 @@
         <v>21690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5217,13 +5235,13 @@
         <v>20033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5232,13 +5250,13 @@
         <v>41722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5271,13 @@
         <v>38622</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -5268,13 +5286,13 @@
         <v>27961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5283,13 +5301,13 @@
         <v>66584</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5375,13 @@
         <v>43753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5372,13 +5390,13 @@
         <v>45396</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5387,13 +5405,13 @@
         <v>89150</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5426,13 @@
         <v>71560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5423,13 +5441,13 @@
         <v>63836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>163</v>
@@ -5438,13 +5456,13 @@
         <v>135395</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5530,13 @@
         <v>23270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -5527,13 +5545,13 @@
         <v>29905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -5542,13 +5560,13 @@
         <v>53175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5581,13 @@
         <v>33835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5578,13 +5596,13 @@
         <v>49873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -5593,13 +5611,13 @@
         <v>83709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5685,13 @@
         <v>33179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5682,13 +5700,13 @@
         <v>54755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5697,13 +5715,13 @@
         <v>87934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5736,13 @@
         <v>70071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5733,13 +5751,13 @@
         <v>57432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5748,13 +5766,13 @@
         <v>127503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5840,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>197</v>
@@ -5837,13 +5855,13 @@
         <v>153787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -5852,13 +5870,13 @@
         <v>277150</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5891,13 @@
         <v>226830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>276</v>
@@ -5888,13 +5906,13 @@
         <v>206695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>503</v>
@@ -5903,13 +5921,13 @@
         <v>433525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D995CD0-24D4-454C-8516-FCBBEA526AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4344AE-9276-4CAE-A464-B99CD21ADA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6D05C8D-A965-4941-8967-64E117A69CB9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{48289406-04CC-466E-84DB-A35C9E3E63F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="374">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,1279 +68,1099 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>60,54%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
 </sst>
 </file>
@@ -1752,8 +1572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CC4969-A687-4BD1-8EEF-C2720FDB4E99}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D9E6F6-B3BC-4141-8FFF-840A812666D2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1870,10 +1690,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>1191</v>
+        <v>20934</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1885,85 +1705,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>1190</v>
+        <v>32522</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>13880</v>
+        <v>58397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>6056</v>
+        <v>20652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>19936</v>
+        <v>79050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,153 +1792,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>19743</v>
+        <v>48342</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>11589</v>
+        <v>12084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>31332</v>
+        <v>60425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7">
+        <v>97639</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7">
+        <v>40713</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7">
-        <v>44518</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14597</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="N8" s="7">
-        <v>59114</v>
+        <v>138352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,153 +1947,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>48342</v>
+        <v>27837</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>12084</v>
+        <v>15169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>60425</v>
+        <v>43006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>97639</v>
+        <v>82107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>40713</v>
+        <v>31364</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>138352</v>
+        <v>113471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,153 +2102,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>27837</v>
+        <v>52105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>15169</v>
+        <v>28911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>43006</v>
+        <v>81016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7">
-        <v>82107</v>
+        <v>84944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>31364</v>
+        <v>59640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="N14" s="7">
-        <v>113471</v>
+        <v>144584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,153 +2257,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D16" s="7">
-        <v>52105</v>
+        <v>149217</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>28911</v>
+        <v>67753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="N16" s="7">
-        <v>81016</v>
+        <v>216970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="D17" s="7">
-        <v>84944</v>
+        <v>323088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="I17" s="7">
-        <v>59640</v>
+        <v>152368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>143</v>
+        <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>144584</v>
+        <v>475457</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,217 +2412,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>139</v>
-      </c>
-      <c r="D19" s="7">
-        <v>149217</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>66</v>
-      </c>
-      <c r="I19" s="7">
-        <v>67753</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>205</v>
-      </c>
-      <c r="N19" s="7">
-        <v>216970</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>311</v>
-      </c>
-      <c r="D20" s="7">
-        <v>323088</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>149</v>
-      </c>
-      <c r="I20" s="7">
-        <v>152368</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>460</v>
-      </c>
-      <c r="N20" s="7">
-        <v>475457</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2815,8 +2479,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627FAA50-EBED-4D6E-9A71-9F91D9F4EDDB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A1224-B5F5-4588-8CDA-1ADE93569D37}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2832,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2933,100 +2597,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>4444</v>
+        <v>18976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>3071</v>
+        <v>13011</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>7515</v>
+        <v>31988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>17693</v>
+        <v>56562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>4283</v>
+        <v>22243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>21976</v>
+        <v>78804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,153 +2699,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>75538</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>110792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>14532</v>
+        <v>21063</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>9940</v>
+        <v>22254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>24472</v>
+        <v>43317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>38869</v>
+        <v>70743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>17960</v>
+        <v>40095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="N8" s="7">
-        <v>56829</v>
+        <v>110838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,153 +2854,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>53401</v>
+        <v>91806</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>27900</v>
+        <v>62349</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>81301</v>
+        <v>154155</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>21063</v>
+        <v>22299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>22254</v>
+        <v>15094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>43317</v>
+        <v>37393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>70743</v>
+        <v>57258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>40095</v>
+        <v>37885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7">
-        <v>110838</v>
+        <v>95143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,153 +3009,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>91806</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>62349</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>154155</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>22299</v>
+        <v>14936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>15094</v>
+        <v>24113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>37393</v>
+        <v>39050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>57258</v>
+        <v>62466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>37885</v>
+        <v>39983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>95143</v>
+        <v>102449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,153 +3164,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>77402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>141499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>14936</v>
+        <v>77275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>24113</v>
+        <v>74473</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>39050</v>
+        <v>151748</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="D17" s="7">
-        <v>62466</v>
+        <v>247028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="I17" s="7">
-        <v>39983</v>
+        <v>140205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>366</v>
       </c>
       <c r="N17" s="7">
-        <v>102449</v>
+        <v>387233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,217 +3319,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="D18" s="7">
-        <v>77402</v>
+        <v>324303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>214678</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>136</v>
+        <v>508</v>
       </c>
       <c r="N18" s="7">
-        <v>141499</v>
+        <v>538981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>73</v>
-      </c>
-      <c r="D19" s="7">
-        <v>77275</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>74473</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="7">
-        <v>142</v>
-      </c>
-      <c r="N19" s="7">
-        <v>151748</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>238</v>
-      </c>
-      <c r="D20" s="7">
-        <v>247028</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>128</v>
-      </c>
-      <c r="I20" s="7">
-        <v>140205</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="7">
-        <v>366</v>
-      </c>
-      <c r="N20" s="7">
-        <v>387234</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>311</v>
-      </c>
-      <c r="D21" s="7">
-        <v>324303</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>197</v>
-      </c>
-      <c r="I21" s="7">
-        <v>214678</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>508</v>
-      </c>
-      <c r="N21" s="7">
-        <v>538982</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3878,8 +3386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FF5336-A731-44A8-84AF-5F76B518BCB6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358ECC4A-1CC0-4CCD-AD75-1775BF440789}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3895,7 +3403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,100 +3504,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>1928</v>
+        <v>19179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>968</v>
+        <v>10952</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>2896</v>
+        <v>30132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>6121</v>
+        <v>35494</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>5162</v>
+        <v>18963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>11283</v>
+        <v>54456</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,153 +3606,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>17252</v>
+        <v>32690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>9984</v>
+        <v>25051</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>27235</v>
+        <v>57740</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>29372</v>
+        <v>64294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>13801</v>
+        <v>30501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="N8" s="7">
-        <v>43174</v>
+        <v>94795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,153 +3761,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>32690</v>
+        <v>45169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>25051</v>
+        <v>29745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>57740</v>
+        <v>74914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>64294</v>
+        <v>64766</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>30501</v>
+        <v>35002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="N11" s="7">
-        <v>94795</v>
+        <v>99768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,153 +3916,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>45169</v>
+        <v>38912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>29745</v>
+        <v>24098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>74914</v>
+        <v>63010</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>64766</v>
+        <v>49498</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>35002</v>
+        <v>41985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>99768</v>
+        <v>91483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,153 +4071,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>38912</v>
+        <v>135950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>24098</v>
+        <v>89846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>63010</v>
+        <v>225796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="D17" s="7">
-        <v>49498</v>
+        <v>214051</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="I17" s="7">
-        <v>41985</v>
+        <v>126452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="N17" s="7">
-        <v>91483</v>
+        <v>340503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,217 +4226,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>123</v>
-      </c>
-      <c r="D19" s="7">
-        <v>135950</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="7">
-        <v>86</v>
-      </c>
-      <c r="I19" s="7">
-        <v>89846</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>209</v>
-      </c>
-      <c r="N19" s="7">
-        <v>225796</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>199</v>
-      </c>
-      <c r="D20" s="7">
-        <v>214051</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>121</v>
-      </c>
-      <c r="I20" s="7">
-        <v>126452</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>320</v>
-      </c>
-      <c r="N20" s="7">
-        <v>340503</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4941,8 +4293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246992B-0472-442C-98EE-D4323ED176DD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD290536-4B58-474D-BD06-5175E80B8B16}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4958,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5059,100 +4411,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>1471</v>
+        <v>21484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>3698</v>
+        <v>21528</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>5169</v>
+        <v>43012</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>12742</v>
+        <v>49731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>7593</v>
+        <v>33153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="N5" s="7">
-        <v>20334</v>
+        <v>82885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,153 +4513,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>21690</v>
+        <v>41638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>20033</v>
+        <v>39949</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>41722</v>
+        <v>81587</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>38622</v>
+        <v>69232</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I8" s="7">
-        <v>27961</v>
+        <v>58781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="N8" s="7">
-        <v>66584</v>
+        <v>128013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,153 +4668,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>110870</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>209600</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>43753</v>
+        <v>21236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>45396</v>
+        <v>27234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>89150</v>
+        <v>48470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>71560</v>
+        <v>33182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>63836</v>
+        <v>69674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>135395</v>
+        <v>102855</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,153 +4823,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>115313</v>
+        <v>54418</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>109232</v>
+        <v>96908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="N12" s="7">
-        <v>224545</v>
+        <v>151325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>23270</v>
+        <v>30827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>29905</v>
+        <v>49502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>53175</v>
+        <v>80329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7">
-        <v>33835</v>
+        <v>69525</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>49873</v>
+        <v>53713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="N14" s="7">
-        <v>83709</v>
+        <v>123238</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,153 +4978,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>57105</v>
+        <v>100352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="N15" s="7">
-        <v>136884</v>
+        <v>203567</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>33179</v>
+        <v>115185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="I16" s="7">
-        <v>54755</v>
+        <v>138214</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="N16" s="7">
-        <v>87934</v>
+        <v>253399</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="D17" s="7">
-        <v>70071</v>
+        <v>221670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="I17" s="7">
-        <v>57432</v>
+        <v>215320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>503</v>
       </c>
       <c r="N17" s="7">
-        <v>127503</v>
+        <v>436990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,217 +5133,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="D18" s="7">
-        <v>103250</v>
+        <v>336855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="I18" s="7">
-        <v>112187</v>
+        <v>353534</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>249</v>
+        <v>808</v>
       </c>
       <c r="N18" s="7">
-        <v>215437</v>
+        <v>690389</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>108</v>
-      </c>
-      <c r="D19" s="7">
-        <v>123363</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H19" s="7">
-        <v>197</v>
-      </c>
-      <c r="I19" s="7">
-        <v>153787</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>305</v>
-      </c>
-      <c r="N19" s="7">
-        <v>277150</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>227</v>
-      </c>
-      <c r="D20" s="7">
-        <v>226830</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>276</v>
-      </c>
-      <c r="I20" s="7">
-        <v>206695</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>503</v>
-      </c>
-      <c r="N20" s="7">
-        <v>433525</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>335</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350193</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>473</v>
-      </c>
-      <c r="I21" s="7">
-        <v>360482</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>808</v>
-      </c>
-      <c r="N21" s="7">
-        <v>710675</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
